--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1664083.34990902</v>
+        <v>1662195.768392618</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800618</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>241.7627700121621</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>252.6056551265403</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>59.66385641544551</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>16.77478458041834</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>172.56511195609</v>
+        <v>1.925119512544002</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>48.26767095054652</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>241.2714680475197</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>182.4825078252448</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.72683757586862</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>99.90187484148915</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>134.7426179953491</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1582,10 +1582,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>262.2720717483041</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>6.641648079871516</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>104.0814968453065</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>207.3497777082954</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>75.78403230830202</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>8.070639042239931</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151915</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>162.2302874358896</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>10.80859503010073</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>255.7709849266043</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.4294206174707</v>
       </c>
     </row>
     <row r="29">
@@ -2950,25 +2950,25 @@
         <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965527</v>
+        <v>63.57111971692427</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801209</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437416</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571491</v>
+        <v>55.21598883571494</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523575</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>71.27679771160108</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952709</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692994</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
         <v>153.4156709287486</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3320,7 +3320,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463139</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415219</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4307,19 +4307,19 @@
         <v>1993.54646147304</v>
       </c>
       <c r="C2" t="n">
-        <v>1993.54646147304</v>
+        <v>1624.583944532628</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1266.318245925878</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>880.5299933276337</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>578.0123447940987</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>430.0992512117056</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>283.2093037137952</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>114.2095034521276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>533.621179645333</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2149.375138862102</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,10 +4565,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4595,22 +4595,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="Y5" t="n">
-        <v>2323.683332757143</v>
+        <v>2478.514423990285</v>
       </c>
     </row>
     <row r="6">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>422.6486545462877</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>422.6486545462877</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>422.6486545462877</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>422.6486545462877</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1915.737096240334</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="C8" t="n">
-        <v>1546.774579299922</v>
+        <v>1299.526533804879</v>
       </c>
       <c r="D8" t="n">
-        <v>1188.508880693172</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E8" t="n">
-        <v>802.7206280949276</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>391.7347233053201</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4847,7 +4847,7 @@
         <v>2302.336936304456</v>
       </c>
       <c r="Y8" t="n">
-        <v>2302.336936304456</v>
+        <v>1912.197604328644</v>
       </c>
     </row>
     <row r="9">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>409.5384547146242</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>154.8539665087373</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5027,43 +5027,43 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5106,34 +5106,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.043068977053</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1999.905696641086</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2279.445761859783</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>542.1367719529251</v>
+        <v>552.3735683412851</v>
       </c>
       <c r="C13" t="n">
-        <v>542.1367719529251</v>
+        <v>383.4373854133783</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>233.3207460010425</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>233.3207460010425</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,46 +5203,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1233.994985963656</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V13" t="n">
-        <v>1233.994985963656</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W13" t="n">
-        <v>944.5778159266949</v>
+        <v>954.814612315055</v>
       </c>
       <c r="X13" t="n">
-        <v>944.5778159266949</v>
+        <v>954.814612315055</v>
       </c>
       <c r="Y13" t="n">
-        <v>723.7852367831648</v>
+        <v>734.0220331715249</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,25 +5261,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,37 +5288,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5343,31 +5343,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775518</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>552.3735683412849</v>
+        <v>499.657872506522</v>
       </c>
       <c r="C16" t="n">
-        <v>545.6648329070713</v>
+        <v>499.657872506522</v>
       </c>
       <c r="D16" t="n">
-        <v>395.5481934947355</v>
+        <v>499.6578725065222</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123424</v>
+        <v>499.6578725065222</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123425</v>
+        <v>352.7679250086118</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123425</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W16" t="n">
-        <v>954.8146123150548</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X16" t="n">
-        <v>954.8146123150548</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="Y16" t="n">
-        <v>734.0220331715246</v>
+        <v>499.657872506522</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5534,10 +5534,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>524.5778132641557</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C19" t="n">
-        <v>355.6416303362487</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D19" t="n">
-        <v>355.6416303362487</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5692,31 +5692,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1289.472050650533</v>
+        <v>986.0022165609663</v>
       </c>
       <c r="V19" t="n">
-        <v>1034.787562444646</v>
+        <v>731.3177283550795</v>
       </c>
       <c r="W19" t="n">
-        <v>745.3703924076858</v>
+        <v>654.768200770936</v>
       </c>
       <c r="X19" t="n">
-        <v>745.3703924076858</v>
+        <v>426.7786498729187</v>
       </c>
       <c r="Y19" t="n">
-        <v>524.5778132641557</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="20">
@@ -5750,52 +5750,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5914,7 +5914,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
         <v>779.063975947119</v>
@@ -5923,7 +5923,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583031</v>
+        <v>665.6859735286129</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305955</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870654</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6054,13 +6054,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,22 +6069,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>394.223678370532</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="C25" t="n">
-        <v>394.223678370532</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1487.998497800225</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1487.998497800225</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1487.998497800225</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>1198.869859013784</v>
       </c>
       <c r="V25" t="n">
-        <v>786.0822064765186</v>
+        <v>944.1853708078966</v>
       </c>
       <c r="W25" t="n">
-        <v>786.0822064765186</v>
+        <v>654.768200770936</v>
       </c>
       <c r="X25" t="n">
-        <v>558.0926555785013</v>
+        <v>426.7786498729187</v>
       </c>
       <c r="Y25" t="n">
-        <v>558.0926555785013</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="26">
@@ -6218,40 +6218,40 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6300,7 +6300,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6321,7 +6321,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>245.1301850426791</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>245.1301850426791</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>245.1301850426791</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O28" t="n">
         <v>1283.483062980064</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609663</v>
+        <v>1009.867621687012</v>
       </c>
       <c r="V28" t="n">
-        <v>986.0022165609663</v>
+        <v>755.1831334811254</v>
       </c>
       <c r="W28" t="n">
-        <v>727.647686332073</v>
+        <v>465.7659634441646</v>
       </c>
       <c r="X28" t="n">
-        <v>499.6581354340557</v>
+        <v>465.7659634441646</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>245.1301850426791</v>
       </c>
     </row>
     <row r="29">
@@ -6440,34 +6440,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6479,13 +6479,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>656.2176762508395</v>
+        <v>607.5569798833413</v>
       </c>
       <c r="C31" t="n">
-        <v>543.0423586043034</v>
+        <v>607.5569798833413</v>
       </c>
       <c r="D31" t="n">
-        <v>448.6865844733385</v>
+        <v>543.3437276440241</v>
       </c>
       <c r="E31" t="n">
-        <v>356.5343561723162</v>
+        <v>451.1914993430017</v>
       </c>
       <c r="F31" t="n">
-        <v>265.4052739557766</v>
+        <v>360.0624171264621</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569676</v>
+        <v>247.6479607276536</v>
       </c>
       <c r="H31" t="n">
         <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
         <v>997.668872196205</v>
@@ -6634,7 +6634,7 @@
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
@@ -6643,28 +6643,28 @@
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056074</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252997</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323874</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="U31" t="n">
-        <v>1551.94560295862</v>
+        <v>1503.284906591122</v>
       </c>
       <c r="V31" t="n">
-        <v>1353.021980034104</v>
+        <v>1304.361283666606</v>
       </c>
       <c r="W31" t="n">
-        <v>1119.365675278514</v>
+        <v>1070.704978911016</v>
       </c>
       <c r="X31" t="n">
-        <v>947.1369896618678</v>
+        <v>898.4762932943696</v>
       </c>
       <c r="Y31" t="n">
-        <v>782.1052757997085</v>
+        <v>733.4445794322103</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6689,16 +6689,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
@@ -6707,22 +6707,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108342</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229684</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506738</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6883,7 +6883,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859418</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045218</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010328</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7014,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>181.9314425141225</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>592.8217113586352</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115524</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>2050.644882483981</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7099,7 +7099,7 @@
         <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
@@ -7172,19 +7172,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643324</v>
@@ -7199,22 +7199,22 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7254,25 +7254,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,13 +7354,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025262</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
@@ -7418,19 +7418,19 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
@@ -7488,25 +7488,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103126</v>
@@ -7570,7 +7570,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7783,25 +7783,25 @@
         <v>659.4602391108324</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506719</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083199</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982966</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7810,7 +7810,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7828,13 +7828,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025262</v>
@@ -7846,7 +7846,7 @@
         <v>1083.430560862496</v>
       </c>
       <c r="X46" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y46" t="n">
         <v>772.288612901031</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,25 +8772,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>52.497333613053</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,16 +9009,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9720,7 +9720,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9969,10 +9969,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10428,22 +10428,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>87.16935584025441</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10662,25 +10662,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>43.65987261462534</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>73.53204524670059</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10835,7 +10835,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11145,10 +11145,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229581</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>87.16935584025447</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>10.67843002758218</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23470,10 +23470,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>23.96528065027327</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>160.6051730187563</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>62.41207161807104</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,16 +23701,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,22 +23941,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>78.88757469028191</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>210.738966028289</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>171.7613411396974</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338584</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>17.60169274604766</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24409,22 +24409,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>99.15575737369204</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>30.75201340998666</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>0.1552327346241213</v>
       </c>
     </row>
     <row r="29">
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>29.84109667273103</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897904</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523572</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>159.7572980584191</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-1.463718035665806e-12</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>913624.7133275938</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.7133275938</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>949948.7918249847</v>
+        <v>949948.7918249848</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185699</v>
@@ -26323,37 +26323,37 @@
         <v>469234.8716852504</v>
       </c>
       <c r="F2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="G2" t="n">
         <v>469234.8716852504</v>
       </c>
-      <c r="G2" t="n">
-        <v>469234.8716852505</v>
-      </c>
       <c r="H2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="I2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852501</v>
       </c>
       <c r="J2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="K2" t="n">
         <v>488186.5648143236</v>
       </c>
       <c r="L2" t="n">
+        <v>492625.0619185701</v>
+      </c>
+      <c r="M2" t="n">
+        <v>492625.0619185702</v>
+      </c>
+      <c r="N2" t="n">
         <v>492625.0619185704</v>
-      </c>
-      <c r="M2" t="n">
-        <v>492625.0619185704</v>
-      </c>
-      <c r="N2" t="n">
-        <v>492625.0619185703</v>
       </c>
       <c r="O2" t="n">
         <v>492625.0619185702</v>
       </c>
       <c r="P2" t="n">
-        <v>492625.0619185702</v>
+        <v>492625.0619185703</v>
       </c>
     </row>
     <row r="3">
@@ -26372,40 +26372,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284567</v>
+        <v>44162.60530284569</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086684</v>
+        <v>10342.90680086691</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.6053028457</v>
       </c>
     </row>
     <row r="4">
@@ -26424,37 +26424,37 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143916</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143907</v>
+        <v>15045.66962143912</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563565</v>
+        <v>33210.29213563562</v>
       </c>
       <c r="L4" t="n">
+        <v>37464.45686275959</v>
+      </c>
+      <c r="M4" t="n">
+        <v>37464.4568627596</v>
+      </c>
+      <c r="N4" t="n">
         <v>37464.45686275957</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>37464.45686275959</v>
-      </c>
-      <c r="N4" t="n">
-        <v>37464.45686275959</v>
-      </c>
-      <c r="O4" t="n">
-        <v>37464.45686275958</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275959</v>
@@ -26476,31 +26476,31 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
@@ -26509,7 +26509,7 @@
         <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-336976.8536106067</v>
+        <v>-336976.8536106066</v>
       </c>
       <c r="C6" t="n">
         <v>252991.0256039378</v>
@@ -26528,40 +26528,40 @@
         <v>252991.0256039378</v>
       </c>
       <c r="E6" t="n">
-        <v>-162958.1603618014</v>
+        <v>-163055.6194877737</v>
       </c>
       <c r="F6" t="n">
-        <v>362201.8761150947</v>
+        <v>362104.4169891225</v>
       </c>
       <c r="G6" t="n">
-        <v>362201.8761150946</v>
+        <v>362104.4169891225</v>
       </c>
       <c r="H6" t="n">
-        <v>362201.8761150948</v>
+        <v>362104.4169891224</v>
       </c>
       <c r="I6" t="n">
-        <v>362201.8761150948</v>
+        <v>362104.4169891221</v>
       </c>
       <c r="J6" t="n">
-        <v>185778.6569225015</v>
+        <v>185681.1977965297</v>
       </c>
       <c r="K6" t="n">
-        <v>314185.4588456195</v>
+        <v>314166.9651076851</v>
       </c>
       <c r="L6" t="n">
-        <v>347102.5924349185</v>
+        <v>347102.5924349183</v>
       </c>
       <c r="M6" t="n">
-        <v>222644.4840019484</v>
+        <v>222644.484001948</v>
       </c>
       <c r="N6" t="n">
+        <v>357445.4992357854</v>
+      </c>
+      <c r="O6" t="n">
         <v>357445.4992357852</v>
       </c>
-      <c r="O6" t="n">
-        <v>357445.4992357851</v>
-      </c>
       <c r="P6" t="n">
-        <v>313282.8939329395</v>
+        <v>313282.8939329396</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964068</v>
@@ -26738,16 +26738,16 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26756,7 +26756,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108355</v>
+        <v>12.92863350108364</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="3">
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>112.9202716085209</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>154.2703906151711</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,13 +27546,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>96.50703242634964</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>201.8098687716764</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>210.1687297073906</v>
+        <v>380.8087221509365</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>238.0142032914312</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>141.4623736159609</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>231.3016621955502</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>186.6211234951019</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29323,13 +29323,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>259.5907485445777</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>215.6591577951388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303341</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36689,10 +36689,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36762,7 +36762,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206028</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36923,10 +36923,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>516.775353191425</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941226</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -36999,7 +36999,7 @@
         <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
         <v>291.4406081491599</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043183</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37148,22 +37148,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>369.5330580813625</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>85.570051569532</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>280.6254601782252</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37555,7 +37555,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37622,7 +37622,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37634,16 +37634,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>516.775353191425</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520613</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M40" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37786,7 +37786,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
@@ -37865,10 +37865,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>420.3639292382673</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
@@ -37877,7 +37877,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
